--- a/client/data/dtr_template.xlsx
+++ b/client/data/dtr_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/java_prj/eliteblue-erp/client/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/art_astillero/Documents/java_prj/eliteblue-erp/client/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376F56B1-75D1-CC4E-973F-8A6D3B25E87D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259F8CA-9EC6-7443-A909-2471304907DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{7720A594-1E83-7147-A388-B07DC01BB18B}"/>
+    <workbookView xWindow="80" yWindow="740" windowWidth="25440" windowHeight="15000" xr2:uid="{7720A594-1E83-7147-A388-B07DC01BB18B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>Detachment No:</t>
   </si>
@@ -77,6 +88,24 @@
   <si>
     <t>Number of Days</t>
   </si>
+  <si>
+    <t>SIL</t>
+  </si>
+  <si>
+    <t>Upload Reason:</t>
+  </si>
+  <si>
+    <t>BTR</t>
+  </si>
+  <si>
+    <t>CCTV OP</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Reliever Detachments:</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +197,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -319,32 +390,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -353,11 +398,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,30 +483,58 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,40 +546,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,8 +925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AF9E1B-8FBB-D844-A849-DF49CD67D498}">
   <dimension ref="A1:BA123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +983,7 @@
       <c r="B1" s="6">
         <v>46</v>
       </c>
-      <c r="C1" s="32">
+      <c r="C1" s="11">
         <v>12</v>
       </c>
       <c r="D1" s="5"/>
@@ -876,23 +1045,27 @@
         <v>44501</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="27"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -905,10 +1078,12 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
+      <c r="AA2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
@@ -941,39 +1116,41 @@
         <v>44515</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="44"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="11"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
@@ -994,7 +1171,7 @@
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1003,32 +1180,36 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="I4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="46"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="11"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
@@ -1049,9 +1230,9 @@
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1077,13 +1258,13 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="11"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
@@ -1225,8 +1406,8 @@
       <c r="BA7" s="3"/>
     </row>
     <row r="8" spans="1:53" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -1275,282 +1456,282 @@
       <c r="AV8" s="21"/>
       <c r="AW8" s="21"/>
       <c r="AX8" s="21"/>
-      <c r="AY8" s="25" t="s">
+      <c r="AY8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AZ8" s="25" t="s">
+      <c r="AZ8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="BA8" s="25" t="s">
+      <c r="BA8" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="22">
+      <c r="B9" s="23"/>
+      <c r="C9" s="15">
         <f>B2</f>
         <v>44501</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="15">
         <f>B2+1</f>
         <v>44502</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="22">
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15">
         <f>B2+2</f>
         <v>44503</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="22">
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="15">
         <f>B2+3</f>
         <v>44504</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="22">
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="15">
         <f>B2+4</f>
         <v>44505</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="22">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="15">
         <f>B2+5</f>
         <v>44506</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="22">
+      <c r="S9" s="16"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="15">
         <f>B2+6</f>
         <v>44507</v>
       </c>
-      <c r="V9" s="23"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="22">
+      <c r="V9" s="16"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="15">
         <f>B2+7</f>
         <v>44508</v>
       </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="22">
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="15">
         <f>B2+8</f>
         <v>44509</v>
       </c>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="22">
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="15">
         <f>B2+9</f>
         <v>44510</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="22">
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="15">
         <f>B2+10</f>
         <v>44511</v>
       </c>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="22">
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="15">
         <f>B2+11</f>
         <v>44512</v>
       </c>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="22">
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="15">
         <f>B2+12</f>
         <v>44513</v>
       </c>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="22">
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="15">
         <f>B2+13</f>
         <v>44514</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="22">
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="15">
         <f>B2+14</f>
         <v>44515</v>
       </c>
-      <c r="AT9" s="23"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="22">
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="15">
         <f>B2+15</f>
         <v>44516</v>
       </c>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="X10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="Z10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AA10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="10" t="s">
+      <c r="AC10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AD10" s="10" t="s">
+      <c r="AD10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="10" t="s">
+      <c r="AE10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF10" s="10" t="s">
+      <c r="AF10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AG10" s="10" t="s">
+      <c r="AG10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="10" t="s">
+      <c r="AH10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AI10" s="10" t="s">
+      <c r="AI10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AJ10" s="10" t="s">
+      <c r="AJ10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AK10" s="10" t="s">
+      <c r="AK10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AL10" s="10" t="s">
+      <c r="AL10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AM10" s="10" t="s">
+      <c r="AM10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="10" t="s">
+      <c r="AN10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AO10" s="10" t="s">
+      <c r="AO10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AP10" s="10" t="s">
+      <c r="AP10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AQ10" s="10" t="s">
+      <c r="AQ10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AR10" s="10" t="s">
+      <c r="AR10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AS10" s="10" t="s">
+      <c r="AS10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AT10" s="10" t="s">
+      <c r="AT10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AU10" s="10" t="s">
+      <c r="AU10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AV10" s="10" t="s">
+      <c r="AV10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AW10" s="10" t="s">
+      <c r="AW10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AX10" s="10" t="s">
+      <c r="AX10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
-      <c r="BA10" s="27"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f>IF(C11&gt;D11,1+D11,D11)-C11</f>
         <v>0</v>
       </c>
@@ -3570,48 +3751,59 @@
       <c r="R123" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="AZ8:AZ10"/>
+  <mergeCells count="52">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:Z4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="BA8:BA10"/>
     <mergeCell ref="AV9:AX9"/>
     <mergeCell ref="AV8:AX8"/>
     <mergeCell ref="AY8:AY10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AZ8:AZ10"/>
     <mergeCell ref="AS9:AU9"/>
     <mergeCell ref="AS8:AU8"/>
     <mergeCell ref="AD8:AF8"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="AJ9:AL9"/>
     <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
     <mergeCell ref="AG9:AI9"/>
     <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="AM9:AO9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
